--- a/contratos/contratos-2-2015.xlsx
+++ b/contratos/contratos-2-2015.xlsx
@@ -748,13 +748,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -808,7 +808,7 @@
     <t>BOURNISSEN OSCAR RAUL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BONNIN MARTIN ANIBAL</t>
@@ -904,7 +904,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -916,7 +916,7 @@
     <t>CZARLINSKY BERNARDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>LEGUIZAMON IVO MARTIN</t>
@@ -1162,7 +1162,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>EL PINCEL TRAVIESO</t>
@@ -1309,553 +1309,553 @@
     <t>7</t>
   </si>
   <si>
-    <t>46.636,00</t>
-  </si>
-  <si>
-    <t>71.300,00</t>
-  </si>
-  <si>
-    <t>6.152.158,75</t>
-  </si>
-  <si>
-    <t>180.000,00</t>
-  </si>
-  <si>
-    <t>219.500,00</t>
-  </si>
-  <si>
-    <t>5.262,10</t>
-  </si>
-  <si>
-    <t>37.910,00</t>
-  </si>
-  <si>
-    <t>199.999,80</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>71.500,00</t>
-  </si>
-  <si>
-    <t>575.273,91</t>
-  </si>
-  <si>
-    <t>19.020,00</t>
-  </si>
-  <si>
-    <t>105.973,65</t>
-  </si>
-  <si>
-    <t>13.593,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.774,59</t>
-  </si>
-  <si>
-    <t>328,90</t>
-  </si>
-  <si>
-    <t>653,73</t>
-  </si>
-  <si>
-    <t>35.250,08</t>
-  </si>
-  <si>
-    <t>3.585,00</t>
-  </si>
-  <si>
-    <t>5.945,94</t>
-  </si>
-  <si>
-    <t>5.450,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.614,22</t>
-  </si>
-  <si>
-    <t>35.618,00</t>
-  </si>
-  <si>
-    <t>47.206,54</t>
-  </si>
-  <si>
-    <t>3.318,27</t>
-  </si>
-  <si>
-    <t>664,98</t>
-  </si>
-  <si>
-    <t>84.684,00</t>
-  </si>
-  <si>
-    <t>8.860,00</t>
-  </si>
-  <si>
-    <t>13.862,49</t>
-  </si>
-  <si>
-    <t>1.666,56</t>
-  </si>
-  <si>
-    <t>13.650,00</t>
-  </si>
-  <si>
-    <t>3.066,45</t>
-  </si>
-  <si>
-    <t>334,38</t>
-  </si>
-  <si>
-    <t>13.924,50</t>
-  </si>
-  <si>
-    <t>36.747,15</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>13,00</t>
-  </si>
-  <si>
-    <t>1.023,00</t>
-  </si>
-  <si>
-    <t>3.742,10</t>
-  </si>
-  <si>
-    <t>3.579,20</t>
-  </si>
-  <si>
-    <t>961,02</t>
-  </si>
-  <si>
-    <t>723,06</t>
-  </si>
-  <si>
-    <t>5.554,12</t>
-  </si>
-  <si>
-    <t>6.637,79</t>
-  </si>
-  <si>
-    <t>55.224,90</t>
-  </si>
-  <si>
-    <t>30,92</t>
-  </si>
-  <si>
-    <t>1.145,93</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>624,76</t>
-  </si>
-  <si>
-    <t>7.636,80</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>238,53</t>
-  </si>
-  <si>
-    <t>2.327,60</t>
-  </si>
-  <si>
-    <t>442,72</t>
-  </si>
-  <si>
-    <t>35.750,00</t>
-  </si>
-  <si>
-    <t>12.191,48</t>
-  </si>
-  <si>
-    <t>2.970,00</t>
-  </si>
-  <si>
-    <t>5.540,00</t>
-  </si>
-  <si>
-    <t>11,77</t>
-  </si>
-  <si>
-    <t>77.600,00</t>
-  </si>
-  <si>
-    <t>3.540,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>784,00</t>
-  </si>
-  <si>
-    <t>5.580,00</t>
-  </si>
-  <si>
-    <t>119,00</t>
-  </si>
-  <si>
-    <t>1.574,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>49.585,00</t>
-  </si>
-  <si>
-    <t>1.754,00</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>397,56</t>
-  </si>
-  <si>
-    <t>287,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>192.000,00</t>
-  </si>
-  <si>
-    <t>371.897,61</t>
-  </si>
-  <si>
-    <t>53.792,25</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>26,63</t>
-  </si>
-  <si>
-    <t>2.530,00</t>
-  </si>
-  <si>
-    <t>19.906,13</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>133,50</t>
-  </si>
-  <si>
-    <t>37,80</t>
-  </si>
-  <si>
-    <t>11.340,00</t>
-  </si>
-  <si>
-    <t>17,80</t>
-  </si>
-  <si>
-    <t>1.317,50</t>
-  </si>
-  <si>
-    <t>6.853,60</t>
-  </si>
-  <si>
-    <t>60.463,00</t>
-  </si>
-  <si>
-    <t>1.906,00</t>
-  </si>
-  <si>
-    <t>48.692,68</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>1.459,00</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>6.659,46</t>
-  </si>
-  <si>
-    <t>3.063,65</t>
-  </si>
-  <si>
-    <t>340,58</t>
-  </si>
-  <si>
-    <t>146,28</t>
-  </si>
-  <si>
-    <t>82,59</t>
-  </si>
-  <si>
-    <t>77,00</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>125.680,00</t>
-  </si>
-  <si>
-    <t>72.680,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>4.375,00</t>
-  </si>
-  <si>
-    <t>125.634,00</t>
-  </si>
-  <si>
-    <t>4.046,00</t>
-  </si>
-  <si>
-    <t>12.080,00</t>
-  </si>
-  <si>
-    <t>21.812,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.785,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>1.520,70</t>
-  </si>
-  <si>
-    <t>1.491,00</t>
-  </si>
-  <si>
-    <t>90.535,00</t>
-  </si>
-  <si>
-    <t>1.089,14</t>
-  </si>
-  <si>
-    <t>187.760,00</t>
-  </si>
-  <si>
-    <t>7.637,12</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>7.986,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>15.540,01</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>5.280,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>2.805,00</t>
-  </si>
-  <si>
-    <t>22.417,00</t>
-  </si>
-  <si>
-    <t>6.205,00</t>
-  </si>
-  <si>
-    <t>493,20</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>5.270,00</t>
-  </si>
-  <si>
-    <t>1.870,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>861,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>5.480,00</t>
-  </si>
-  <si>
-    <t>292,34</t>
-  </si>
-  <si>
-    <t>207,80</t>
-  </si>
-  <si>
-    <t>3.728,25</t>
-  </si>
-  <si>
-    <t>8.880,00</t>
-  </si>
-  <si>
-    <t>4.350,00</t>
-  </si>
-  <si>
-    <t>1.630,00</t>
-  </si>
-  <si>
-    <t>8.955,00</t>
-  </si>
-  <si>
-    <t>7.748,59</t>
-  </si>
-  <si>
-    <t>3.136,80</t>
-  </si>
-  <si>
-    <t>5.233,98</t>
-  </si>
-  <si>
-    <t>2.166,64</t>
-  </si>
-  <si>
-    <t>208.000,00</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>35.840,00</t>
-  </si>
-  <si>
-    <t>14.280,00</t>
-  </si>
-  <si>
-    <t>69.573,00</t>
-  </si>
-  <si>
-    <t>260.034,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>98.000,00</t>
-  </si>
-  <si>
-    <t>165.237,30</t>
-  </si>
-  <si>
-    <t>20.430,31</t>
-  </si>
-  <si>
-    <t>254.288,57</t>
-  </si>
-  <si>
-    <t>1.901.940,21</t>
-  </si>
-  <si>
-    <t>524.257,49</t>
-  </si>
-  <si>
-    <t>7.420.778,79</t>
-  </si>
-  <si>
-    <t>268.000,00</t>
-  </si>
-  <si>
-    <t>24.740,00</t>
-  </si>
-  <si>
-    <t>2.770,00</t>
-  </si>
-  <si>
-    <t>42.940,39</t>
-  </si>
-  <si>
-    <t>105.800,00</t>
-  </si>
-  <si>
-    <t>22.273,00</t>
+    <t>46636.00</t>
+  </si>
+  <si>
+    <t>71300.00</t>
+  </si>
+  <si>
+    <t>6152158.75</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>219500.00</t>
+  </si>
+  <si>
+    <t>5262.10</t>
+  </si>
+  <si>
+    <t>37910.00</t>
+  </si>
+  <si>
+    <t>199999.80</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>71500.00</t>
+  </si>
+  <si>
+    <t>575273.91</t>
+  </si>
+  <si>
+    <t>19020.00</t>
+  </si>
+  <si>
+    <t>105973.65</t>
+  </si>
+  <si>
+    <t>13593.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1774.59</t>
+  </si>
+  <si>
+    <t>328.90</t>
+  </si>
+  <si>
+    <t>653.73</t>
+  </si>
+  <si>
+    <t>35250.08</t>
+  </si>
+  <si>
+    <t>3585.00</t>
+  </si>
+  <si>
+    <t>5945.94</t>
+  </si>
+  <si>
+    <t>5450.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1614.22</t>
+  </si>
+  <si>
+    <t>35618.00</t>
+  </si>
+  <si>
+    <t>47206.54</t>
+  </si>
+  <si>
+    <t>3318.27</t>
+  </si>
+  <si>
+    <t>664.98</t>
+  </si>
+  <si>
+    <t>84684.00</t>
+  </si>
+  <si>
+    <t>8860.00</t>
+  </si>
+  <si>
+    <t>13862.49</t>
+  </si>
+  <si>
+    <t>1666.56</t>
+  </si>
+  <si>
+    <t>13650.00</t>
+  </si>
+  <si>
+    <t>3066.45</t>
+  </si>
+  <si>
+    <t>334.38</t>
+  </si>
+  <si>
+    <t>13924.50</t>
+  </si>
+  <si>
+    <t>36747.15</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>1023.00</t>
+  </si>
+  <si>
+    <t>3742.10</t>
+  </si>
+  <si>
+    <t>3579.20</t>
+  </si>
+  <si>
+    <t>961.02</t>
+  </si>
+  <si>
+    <t>723.06</t>
+  </si>
+  <si>
+    <t>5554.12</t>
+  </si>
+  <si>
+    <t>6637.79</t>
+  </si>
+  <si>
+    <t>55224.90</t>
+  </si>
+  <si>
+    <t>30.92</t>
+  </si>
+  <si>
+    <t>1145.93</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>624.76</t>
+  </si>
+  <si>
+    <t>7636.80</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>238.53</t>
+  </si>
+  <si>
+    <t>2327.60</t>
+  </si>
+  <si>
+    <t>442.72</t>
+  </si>
+  <si>
+    <t>35750.00</t>
+  </si>
+  <si>
+    <t>12191.48</t>
+  </si>
+  <si>
+    <t>2970.00</t>
+  </si>
+  <si>
+    <t>5540.00</t>
+  </si>
+  <si>
+    <t>11.77</t>
+  </si>
+  <si>
+    <t>77600.00</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>784.00</t>
+  </si>
+  <si>
+    <t>5580.00</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>1574.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>49585.00</t>
+  </si>
+  <si>
+    <t>1754.00</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>397.56</t>
+  </si>
+  <si>
+    <t>287.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>192000.00</t>
+  </si>
+  <si>
+    <t>371897.61</t>
+  </si>
+  <si>
+    <t>53792.25</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>2530.00</t>
+  </si>
+  <si>
+    <t>19906.13</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>133.50</t>
+  </si>
+  <si>
+    <t>37.80</t>
+  </si>
+  <si>
+    <t>11340.00</t>
+  </si>
+  <si>
+    <t>17.80</t>
+  </si>
+  <si>
+    <t>1317.50</t>
+  </si>
+  <si>
+    <t>6853.60</t>
+  </si>
+  <si>
+    <t>60463.00</t>
+  </si>
+  <si>
+    <t>1906.00</t>
+  </si>
+  <si>
+    <t>48692.68</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>1459.00</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>6659.46</t>
+  </si>
+  <si>
+    <t>3063.65</t>
+  </si>
+  <si>
+    <t>340.58</t>
+  </si>
+  <si>
+    <t>146.28</t>
+  </si>
+  <si>
+    <t>82.59</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>125680.00</t>
+  </si>
+  <si>
+    <t>72680.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>4375.00</t>
+  </si>
+  <si>
+    <t>125634.00</t>
+  </si>
+  <si>
+    <t>4046.00</t>
+  </si>
+  <si>
+    <t>12080.00</t>
+  </si>
+  <si>
+    <t>21812.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1785.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>1520.70</t>
+  </si>
+  <si>
+    <t>1491.00</t>
+  </si>
+  <si>
+    <t>90535.00</t>
+  </si>
+  <si>
+    <t>1089.14</t>
+  </si>
+  <si>
+    <t>187760.00</t>
+  </si>
+  <si>
+    <t>7637.12</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>7986.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>15540.01</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>5280.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>2805.00</t>
+  </si>
+  <si>
+    <t>22417.00</t>
+  </si>
+  <si>
+    <t>6205.00</t>
+  </si>
+  <si>
+    <t>493.20</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>5270.00</t>
+  </si>
+  <si>
+    <t>1870.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>5480.00</t>
+  </si>
+  <si>
+    <t>292.34</t>
+  </si>
+  <si>
+    <t>207.80</t>
+  </si>
+  <si>
+    <t>3728.25</t>
+  </si>
+  <si>
+    <t>8880.00</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>1630.00</t>
+  </si>
+  <si>
+    <t>8955.00</t>
+  </si>
+  <si>
+    <t>7748.59</t>
+  </si>
+  <si>
+    <t>3136.80</t>
+  </si>
+  <si>
+    <t>5233.98</t>
+  </si>
+  <si>
+    <t>2166.64</t>
+  </si>
+  <si>
+    <t>208000.00</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>35840.00</t>
+  </si>
+  <si>
+    <t>14280.00</t>
+  </si>
+  <si>
+    <t>69573.00</t>
+  </si>
+  <si>
+    <t>260034.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>98000.00</t>
+  </si>
+  <si>
+    <t>165237.30</t>
+  </si>
+  <si>
+    <t>20430.31</t>
+  </si>
+  <si>
+    <t>254288.57</t>
+  </si>
+  <si>
+    <t>1901940.21</t>
+  </si>
+  <si>
+    <t>524257.49</t>
+  </si>
+  <si>
+    <t>7420778.79</t>
+  </si>
+  <si>
+    <t>268000.00</t>
+  </si>
+  <si>
+    <t>24740.00</t>
+  </si>
+  <si>
+    <t>2770.00</t>
+  </si>
+  <si>
+    <t>42940.39</t>
+  </si>
+  <si>
+    <t>105800.00</t>
+  </si>
+  <si>
+    <t>22273.00</t>
   </si>
 </sst>
 </file>
